--- a/biology/Botanique/Avenella/Avenella.xlsx
+++ b/biology/Botanique/Avenella/Avenella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avenella est un genre de plantes à fleurs de la famille des Poaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (21 avril 2021)[2] (liste brute contenant des synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (21 avril 2021) (liste brute contenant des synonymes :
 Avenella corsica (Tausch) Landolt	Fl. Indicativa 268, 2010
 Avenella cuprina Schur Sert. Fl. Transsilv. 4: 85, 1853
 Avenella flexuosa (L.) Drejer	Fl. Excurs. Hafn. 32, 1838
@@ -524,7 +538,7 @@
 Avenella stricta Albers
 Avenella stricta (Hack.) P. Silva	Agron. Lusit. 40(1): 5, 1980
 Avenella uliginosa (Weihe &amp; Boenn.) Parl.	Fl. Ital. 1: 246, 1848
-Selon la World Checklist of Vascular Plants[3] :
+Selon la World Checklist of Vascular Plants :
 Avenella corsica (Tausch) Landolt, synonyme de Avenella flexuosa subsp. corsica (Tausch) Holub
 Avenella cuprina Schur, synonyme de Avenella flexuosa subsp. corsica (Tausch) Holub
 Avenella flexuosa (L.) Drejer, nom correct
